--- a/VitalSigns/TestBuild/observations-summary.xlsx
+++ b/VitalSigns/TestBuild/observations-summary.xlsx
@@ -271,10 +271,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/VitalSigns/TestBuild/observations-summary.xlsx
+++ b/VitalSigns/TestBuild/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="45">
   <si>
     <t>Profile</t>
   </si>
@@ -74,13 +74,13 @@
     <t>optional</t>
   </si>
   <si>
-    <t>LOINC#8480-6</t>
-  </si>
-  <si>
-    <t>LOINC#8462-4</t>
-  </si>
-  <si>
-    <t>LOINC#8478-0</t>
+    <t>LOINC#8480-6, SNOMED CT#4471000202106</t>
+  </si>
+  <si>
+    <t>LOINC#8462-4, SNOMED CT#4481000202108</t>
+  </si>
+  <si>
+    <t>LOINC#8478-0, SNOMED CT#4491000202105</t>
   </si>
   <si>
     <t>SNOMED CT#4461000202102</t>
@@ -92,7 +92,7 @@
     <t>NO Domain VitalSigns Observation - Body Height</t>
   </si>
   <si>
-    <t>null#8302-2</t>
+    <t>null#8302-2, null#50373000</t>
   </si>
   <si>
     <t>NoDomainVitalSignsObservationBodyTemp</t>
@@ -101,7 +101,7 @@
     <t>NO Domain VitalSigns Observation - Body Temperature</t>
   </si>
   <si>
-    <t>null#8310-5</t>
+    <t>null#8310-5, null#276885007</t>
   </si>
   <si>
     <t>NoDomainVitalSignsObservationBodyWeight</t>
@@ -110,7 +110,7 @@
     <t>NO Domain VitalSigns Observation - Body Weight</t>
   </si>
   <si>
-    <t>null#29463-7</t>
+    <t>null#29463-7, null#27113001</t>
   </si>
   <si>
     <t>NoDomainVitalSignsObservationHeartRate</t>
@@ -119,7 +119,7 @@
     <t>NO Domain VitalSigns Observation - Heart Rate</t>
   </si>
   <si>
-    <t>null#8867-4</t>
+    <t>null#8867-4, null#364075005</t>
   </si>
   <si>
     <t>NoDomainVitalSignsObservationOxygenSaturation</t>
@@ -128,19 +128,16 @@
     <t>NO Domain VitalSigns Observation - Oxygen Saturation</t>
   </si>
   <si>
-    <t>null#2708-6</t>
-  </si>
-  <si>
-    <t>NoDomainVitalSignsObservationPulse</t>
-  </si>
-  <si>
-    <t>NO Domain VitalSigns Observation - Pulse</t>
-  </si>
-  <si>
-    <t>null#78564009</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+    <t>null#2708-6, null#431314004</t>
+  </si>
+  <si>
+    <t>NoDomainVitalSignsObservationPuls</t>
+  </si>
+  <si>
+    <t>NO Domain VitalSigns Observation - Puls</t>
+  </si>
+  <si>
+    <t>null#8867-4, null#78564009</t>
   </si>
   <si>
     <t>NoDomainVitalSignsObservationRespirationRate</t>
@@ -149,7 +146,7 @@
     <t>NO Domain VitalSigns Observation - Respiration Rate</t>
   </si>
   <si>
-    <t>null#9279-1</t>
+    <t>null#9279-1, null#271625008</t>
   </si>
 </sst>
 </file>
@@ -697,7 +694,7 @@
         <v>17</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>19</v>
@@ -711,10 +708,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>13</v>
@@ -723,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>16</v>

--- a/VitalSigns/TestBuild/observations-summary.xlsx
+++ b/VitalSigns/TestBuild/observations-summary.xlsx
@@ -131,10 +131,10 @@
     <t>null#2708-6, null#431314004</t>
   </si>
   <si>
-    <t>NoDomainVitalSignsObservationPuls</t>
-  </si>
-  <si>
-    <t>NO Domain VitalSigns Observation - Puls</t>
+    <t>NoDomainVitalSignsObservationPulse</t>
+  </si>
+  <si>
+    <t>NO Domain VitalSigns Observation - Pulse</t>
   </si>
   <si>
     <t>null#8867-4, null#78564009</t>

--- a/VitalSigns/TestBuild/observations-summary.xlsx
+++ b/VitalSigns/TestBuild/observations-summary.xlsx
@@ -80,7 +80,7 @@
     <t>LOINC#8462-4, SNOMED CT#4481000202108</t>
   </si>
   <si>
-    <t>LOINC#8478-0, SNOMED CT#4491000202105</t>
+    <t>LOINC#8478-0, SNOMED CT#4501000202102</t>
   </si>
   <si>
     <t>SNOMED CT#4461000202102</t>

--- a/VitalSigns/TestBuild/observations-summary.xlsx
+++ b/VitalSigns/TestBuild/observations-summary.xlsx
@@ -92,7 +92,7 @@
     <t>NO Domain VitalSigns Observation - Body Height</t>
   </si>
   <si>
-    <t>null#8302-2, null#50373000</t>
+    <t>null#8302-2, null#1153637007</t>
   </si>
   <si>
     <t>NoDomainVitalSignsObservationBodyTemp</t>

--- a/VitalSigns/TestBuild/observations-summary.xlsx
+++ b/VitalSigns/TestBuild/observations-summary.xlsx
@@ -47,10 +47,10 @@
     <t>Method</t>
   </si>
   <si>
-    <t>NoDomainVitalSignsObservationBloodpressure</t>
-  </si>
-  <si>
-    <t>NO Domain VitalSigns Observation - Blood pressure</t>
+    <t>no-domain-VitalSigns-Observation-bloodpressure</t>
+  </si>
+  <si>
+    <t>no-domain-VitalSigns-Observation-bloodpressure Profile</t>
   </si>
   <si>
     <t>null#vital-signs</t>
@@ -86,64 +86,64 @@
     <t>SNOMED CT#4461000202102</t>
   </si>
   <si>
-    <t>NoDomainVitalSignsObservationBodyHeight</t>
-  </si>
-  <si>
-    <t>NO Domain VitalSigns Observation - Body Height</t>
+    <t>no-domain-VitalSigns-Observation-bodyheight</t>
+  </si>
+  <si>
+    <t>no-domain-VitalSigns-Observation-bodyheight Profile</t>
   </si>
   <si>
     <t>null#8302-2, null#1153637007</t>
   </si>
   <si>
-    <t>NoDomainVitalSignsObservationBodyTemp</t>
-  </si>
-  <si>
-    <t>NO Domain VitalSigns Observation - Body Temperature</t>
+    <t>no-domain-VitalSigns-Observation-bodytemp</t>
+  </si>
+  <si>
+    <t>no-domain-VitalSigns-Observation-bodytemp Profile</t>
   </si>
   <si>
     <t>null#8310-5, null#276885007</t>
   </si>
   <si>
-    <t>NoDomainVitalSignsObservationBodyWeight</t>
-  </si>
-  <si>
-    <t>NO Domain VitalSigns Observation - Body Weight</t>
+    <t>no-domain-VitalSigns-Observation-bodyweight</t>
+  </si>
+  <si>
+    <t>no-domain-VitalSigns-Observation-bodyweight Profile</t>
   </si>
   <si>
     <t>null#29463-7, null#27113001</t>
   </si>
   <si>
-    <t>NoDomainVitalSignsObservationHeartRate</t>
-  </si>
-  <si>
-    <t>NO Domain VitalSigns Observation - Heart Rate</t>
+    <t>no-domain-VitalSigns-Observation-heartrate</t>
+  </si>
+  <si>
+    <t>no-domain-VitalSigns-Observation-heartrate Profile</t>
   </si>
   <si>
     <t>null#8867-4, null#364075005</t>
   </si>
   <si>
-    <t>NoDomainVitalSignsObservationOxygenSaturation</t>
-  </si>
-  <si>
-    <t>NO Domain VitalSigns Observation - Oxygen Saturation</t>
+    <t>no-domain-VitalSigns-Observation-oxygensaturation</t>
+  </si>
+  <si>
+    <t>no-domain-VitalSigns-Observation-oxygensaturation Profile</t>
   </si>
   <si>
     <t>null#2708-6, null#431314004</t>
   </si>
   <si>
-    <t>NoDomainVitalSignsObservationPulse</t>
-  </si>
-  <si>
-    <t>NO Domain VitalSigns Observation - Pulse</t>
+    <t>no-domain-VitalSigns-Observation-pulse</t>
+  </si>
+  <si>
+    <t>no-domain-VitalSigns-Observation-pulse Profile</t>
   </si>
   <si>
     <t>null#8867-4, null#78564009</t>
   </si>
   <si>
-    <t>NoDomainVitalSignsObservationRespirationRate</t>
-  </si>
-  <si>
-    <t>NO Domain VitalSigns Observation - Respiration Rate</t>
+    <t>no-domain-VitalSigns-Observation-respirationrate</t>
+  </si>
+  <si>
+    <t>no-domain-VitalSigns-Observation-respirationrate Profile</t>
   </si>
   <si>
     <t>null#9279-1, null#271625008</t>
